--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Fzd1.xlsx
@@ -549,10 +549,10 @@
         <v>0.063261</v>
       </c>
       <c r="I2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>0.01058328414</v>
+        <v>0.022999808799</v>
       </c>
       <c r="R2">
-        <v>0.09524955725999998</v>
+        <v>0.206998279191</v>
       </c>
       <c r="S2">
-        <v>0.002763886801555378</v>
+        <v>0.001137220164711243</v>
       </c>
       <c r="T2">
-        <v>0.002763886801555378</v>
+        <v>0.001137220164711244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.063261</v>
       </c>
       <c r="I3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
         <v>0.358617534561</v>
@@ -641,10 +641,10 @@
         <v>3.227557811049</v>
       </c>
       <c r="S3">
-        <v>0.09365507506628068</v>
+        <v>0.01773176008922005</v>
       </c>
       <c r="T3">
-        <v>0.09365507506628068</v>
+        <v>0.01773176008922006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.063261</v>
       </c>
       <c r="I4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>0.008950805918999999</v>
+        <v>0.015610305447</v>
       </c>
       <c r="R4">
-        <v>0.08055725327099998</v>
+        <v>0.140492749023</v>
       </c>
       <c r="S4">
-        <v>0.002337555527712389</v>
+        <v>0.0007718479004226332</v>
       </c>
       <c r="T4">
-        <v>0.002337555527712389</v>
+        <v>0.0007718479004226334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.063261</v>
       </c>
       <c r="I5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>0.06342161265</v>
+        <v>0.05870648915999999</v>
       </c>
       <c r="R5">
-        <v>0.57079451385</v>
+        <v>0.5283584024399999</v>
       </c>
       <c r="S5">
-        <v>0.01656292657533171</v>
+        <v>0.002902728620729087</v>
       </c>
       <c r="T5">
-        <v>0.01656292657533171</v>
+        <v>0.002902728620729088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.063261</v>
       </c>
       <c r="I6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>0.005127627383999999</v>
+        <v>0.005715244755</v>
       </c>
       <c r="R6">
-        <v>0.046148646456</v>
+        <v>0.051437202795</v>
       </c>
       <c r="S6">
-        <v>0.001339110002382638</v>
+        <v>0.0002825889396927838</v>
       </c>
       <c r="T6">
-        <v>0.001339110002382638</v>
+        <v>0.0002825889396927838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.063261</v>
       </c>
       <c r="I7">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J7">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>0.008426372228999999</v>
+        <v>0.009204644195999999</v>
       </c>
       <c r="R7">
-        <v>0.07583735006099999</v>
+        <v>0.082841797764</v>
       </c>
       <c r="S7">
-        <v>0.002200596589928264</v>
+        <v>0.0004551214786245801</v>
       </c>
       <c r="T7">
-        <v>0.002200596589928264</v>
+        <v>0.0004551214786245802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H8">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N8">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q8">
-        <v>0.0784572658711111</v>
+        <v>0.9649107120475557</v>
       </c>
       <c r="R8">
-        <v>0.7061153928399999</v>
+        <v>8.684196408428001</v>
       </c>
       <c r="S8">
-        <v>0.0204895757081398</v>
+        <v>0.04770978439325435</v>
       </c>
       <c r="T8">
-        <v>0.0204895757081398</v>
+        <v>0.04770978439325436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H9">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>51.019709</v>
       </c>
       <c r="O9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q9">
-        <v>2.658546334285111</v>
+        <v>15.04507727216578</v>
       </c>
       <c r="R9">
-        <v>23.926917008566</v>
+        <v>135.405695449492</v>
       </c>
       <c r="S9">
-        <v>0.6942949870241368</v>
+        <v>0.7439003255666043</v>
       </c>
       <c r="T9">
-        <v>0.6942949870241368</v>
+        <v>0.7439003255666045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H10">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N10">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q10">
-        <v>0.06635518336822221</v>
+        <v>0.6548989635426666</v>
       </c>
       <c r="R10">
-        <v>0.5971966503139999</v>
+        <v>5.894090671883999</v>
       </c>
       <c r="S10">
-        <v>0.01732904579525126</v>
+        <v>0.03238132602309265</v>
       </c>
       <c r="T10">
-        <v>0.01732904579525126</v>
+        <v>0.03238132602309265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H11">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N11">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O11">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P11">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q11">
-        <v>0.4701646728777778</v>
+        <v>2.462912659502222</v>
       </c>
       <c r="R11">
-        <v>4.2314820559</v>
+        <v>22.16621393552</v>
       </c>
       <c r="S11">
-        <v>0.1227862652778112</v>
+        <v>0.1217781401917698</v>
       </c>
       <c r="T11">
-        <v>0.1227862652778112</v>
+        <v>0.1217781401917698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H12">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I12">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J12">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N12">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q12">
-        <v>0.03801273967822223</v>
+        <v>0.2397715969844444</v>
       </c>
       <c r="R12">
-        <v>0.342114657104</v>
+        <v>2.15794437286</v>
       </c>
       <c r="S12">
-        <v>0.009927250189807231</v>
+        <v>0.01185545051259657</v>
       </c>
       <c r="T12">
-        <v>0.009927250189807231</v>
+        <v>0.01185545051259658</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H13">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I13">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J13">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N13">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q13">
-        <v>0.06246738890822223</v>
+        <v>0.3861623313013333</v>
       </c>
       <c r="R13">
-        <v>0.562206500174</v>
+        <v>3.475460981712</v>
       </c>
       <c r="S13">
-        <v>0.0163137254416626</v>
+        <v>0.0190937061192819</v>
       </c>
       <c r="T13">
-        <v>0.0163137254416626</v>
+        <v>0.01909370611928191</v>
       </c>
     </row>
   </sheetData>
